--- a/src/main/resources/excel/img/richimg_template.xlsx
+++ b/src/main/resources/excel/img/richimg_template.xlsx
@@ -27,7 +27,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>SirAlwaid</author>
+    <author>MauroWB</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B5C3F9CE-C469-435B-BE1E-71D6BF901278}">
@@ -40,7 +40,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>SirAlwaid:</t>
+          <t>MauroWB:</t>
         </r>
         <r>
           <rPr>

--- a/src/main/resources/excel/img/richimg_template.xlsx
+++ b/src/main/resources/excel/img/richimg_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0099DE00-5D97-461B-9C78-87A79D1AA3D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A039A1-5B31-4C5E-85A1-53FB6A355573}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>MauroWB</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{B5C3F9CE-C469-435B-BE1E-71D6BF901278}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{3EB14FA3-A920-46B8-801D-D55E754EB67A}">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>MauroWB:</t>
         </r>
@@ -47,25 +47,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="A4")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{E532AB77-B3D9-4D4D-8EAF-01623FCC513D}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:each(lastCell="A3" items="master" var="items" direction="RIGHT")
-jx:each(lastCell="A3" items="items" var="obj" direction="DOWN")</t>
+jx:area(lastCell="AA20")</t>
         </r>
       </text>
     </comment>
@@ -74,12 +59,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
-    <t>${obj}</t>
+    <t>${col1}</t>
   </si>
   <si>
-    <t>Image from Url Smeup</t>
+    <t>${col2}</t>
+  </si>
+  <si>
+    <t>${col13}</t>
+  </si>
+  <si>
+    <t>Path To Image Demo</t>
   </si>
 </sst>
 </file>
@@ -98,32 +89,38 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,13 +128,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,22 +426,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/img/richimg_template.xlsx
+++ b/src/main/resources/excel/img/richimg_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A039A1-5B31-4C5E-85A1-53FB6A355573}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE65E81-73C3-4A52-B0CB-F754497CF5AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>${col1}</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Path To Image Demo</t>
+  </si>
+  <si>
+    <t>Inserisce, nelle celle in cui trova il path di un'immagine, l'immagine effettiva.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,7 +445,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
